--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/桌面/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{871D89A3-7347-419E-AB13-C41CC27A1534}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B3A8D7-D16A-48E5-AD97-676F402481D1}"/>
   <bookViews>
-    <workbookView xWindow="7644" yWindow="1524" windowWidth="14376" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,12 +152,28 @@
   <si>
     <t>Longest Common Prefix</t>
   </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>Delete Columns to Make Sorted</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +191,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -259,10 +292,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -270,10 +299,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,26 +602,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H1492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="2" width="56.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="8" customWidth="1"/>
-    <col min="6" max="7" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="7" style="6" customWidth="1"/>
+    <col min="2" max="2" width="56.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,202 +646,7646 @@
       <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8">
         <v>44929</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="F3" s="9">
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9">
         <v>44929</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="F4" s="9">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="6">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="6">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="6">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="6">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="6">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="6">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="6">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="6">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="6">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="6">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="6">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="6">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="6">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="6">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="6">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="6">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="6">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="6">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="6">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="6">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="6">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="6">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" s="6">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" s="6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" s="6">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" s="6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" s="6">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" s="6">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" s="6">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" s="6">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" s="6">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="6">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" s="6">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="6">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A501" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" s="6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A504" s="6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" s="6">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" s="6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" s="6">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="6">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A509" s="6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A510" s="6">
+        <v>509</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F510" s="8">
         <v>44929</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A512" s="6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="6">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="6">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="6">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="6">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="6">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="6">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="6">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="6">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="6">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="6">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="6">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="6">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="6">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="6">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="6">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="6">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="6">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="6">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="6">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="6">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="6">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" s="6">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" s="6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" s="6">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" s="6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" s="6">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" s="6">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" s="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="6">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="6">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="6">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" s="6">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="6">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" s="6">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" s="6">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" s="6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" s="6">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" s="6">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" s="6">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" s="6">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" s="6">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" s="6">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" s="6">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" s="6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" s="6">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" s="6">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" s="6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" s="6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" s="6">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" s="6">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" s="6">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" s="6">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" s="6">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" s="6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" s="6">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" s="6">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" s="6">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" s="6">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" s="6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" s="6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" s="6">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" s="6">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" s="6">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" s="6">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" s="6">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" s="6">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" s="6">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" s="6">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" s="6">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" s="6">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" s="6">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" s="6">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" s="6">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" s="6">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" s="6">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" s="6">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" s="6">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" s="6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" s="6">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" s="6">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" s="6">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" s="6">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" s="6">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" s="6">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" s="6">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" s="6">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" s="6">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" s="6">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" s="6">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" s="6">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" s="6">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" s="6">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" s="6">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" s="6">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" s="6">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" s="6">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" s="6">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" s="6">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" s="6">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" s="6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" s="6">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" s="6">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" s="6">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" s="6">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" s="6">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" s="6">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" s="6">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" s="6">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" s="6">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" s="6">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" s="6">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" s="6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" s="6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" s="6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" s="6">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" s="6">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" s="6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" s="6">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" s="6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" s="6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" s="6">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" s="6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" s="6">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" s="6">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" s="6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" s="6">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" s="6">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" s="6">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" s="6">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" s="6">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" s="6">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" s="6">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" s="6">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" s="6">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" s="6">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" s="6">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" s="6">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" s="6">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" s="6">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" s="6">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" s="6">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" s="6">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" s="6">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" s="6">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" s="6">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" s="6">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" s="6">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" s="6">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" s="6">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" s="6">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" s="6">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" s="6">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" s="6">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" s="6">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" s="6">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" s="6">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" s="6">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" s="6">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" s="6">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" s="6">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" s="6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" s="6">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" s="6">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" s="6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" s="6">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" s="6">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" s="6">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" s="6">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" s="6">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" s="6">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" s="6">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" s="6">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" s="6">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" s="6">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" s="6">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" s="6">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" s="6">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" s="6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" s="6">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" s="6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" s="6">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" s="6">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" s="6">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" s="6">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" s="6">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" s="6">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" s="6">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" s="6">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" s="6">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" s="6">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" s="6">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" s="6">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" s="6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" s="6">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" s="6">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" s="6">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" s="6">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" s="6">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" s="6">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" s="6">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" s="6">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" s="6">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" s="6">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" s="6">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" s="6">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" s="6">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" s="6">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" s="6">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" s="6">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" s="6">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" s="6">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" s="6">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" s="6">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" s="6">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" s="6">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" s="6">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761" s="6">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762" s="6">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763" s="6">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764" s="6">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765" s="6">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766" s="6">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767" s="6">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768" s="6">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769" s="6">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770" s="6">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771" s="6">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772" s="6">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773" s="6">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774" s="6">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775" s="6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776" s="6">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777" s="6">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778" s="6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779" s="6">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780" s="6">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781" s="6">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782" s="6">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783" s="6">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784" s="6">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785" s="6">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" s="6">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787" s="6">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788" s="6">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789" s="6">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790" s="6">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791" s="6">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792" s="6">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793" s="6">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794" s="6">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795" s="6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796" s="6">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797" s="6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798" s="6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799" s="6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800" s="6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802" s="6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803" s="6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804" s="6">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806" s="6">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807" s="6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" s="6">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" s="6">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810" s="6">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811" s="6">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812" s="6">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813" s="6">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814" s="6">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815" s="6">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817" s="6">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818" s="6">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819" s="6">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820" s="6">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821" s="6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822" s="6">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823" s="6">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824" s="6">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825" s="6">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826" s="6">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827" s="6">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828" s="6">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829" s="6">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830" s="6">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831" s="6">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832" s="6">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833" s="6">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834" s="6">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835" s="6">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836" s="6">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837" s="6">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" s="6">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839" s="6">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840" s="6">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842" s="6">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843" s="6">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845" s="6">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846" s="6">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847" s="6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848" s="6">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849" s="6">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850" s="6">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851" s="6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852" s="6">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853" s="6">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854" s="6">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" s="6">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" s="6">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" s="6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" s="6">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" s="6">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" s="6">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" s="6">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" s="6">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" s="6">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" s="6">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" s="6">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" s="6">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" s="6">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" s="6">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" s="6">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" s="6">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" s="6">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" s="6">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" s="6">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" s="6">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" s="6">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" s="6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" s="6">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" s="6">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" s="6">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" s="6">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" s="6">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" s="6">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" s="6">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" s="6">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" s="6">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" s="6">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" s="6">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" s="6">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" s="6">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" s="6">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" s="6">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" s="6">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" s="6">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" s="6">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" s="6">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" s="6">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" s="6">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" s="6">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" s="6">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" s="6">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" s="6">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" s="6">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" s="6">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" s="6">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" s="6">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" s="6">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" s="6">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" s="6">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" s="6">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" s="6">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" s="6">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" s="6">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" s="6">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" s="6">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" s="6">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" s="6">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" s="6">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" s="6">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" s="6">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" s="6">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" s="6">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" s="6">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" s="6">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" s="6">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" s="6">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" s="6">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" s="6">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" s="6">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" s="6">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" s="6">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" s="6">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" s="6">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" s="6">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" s="6">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" s="6">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" s="6">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" s="6">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" s="6">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" s="6">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" s="6">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" s="6">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" s="6">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A945" s="6">
+        <v>944</v>
+      </c>
+      <c r="B945" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C945" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D945" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E945" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F945" s="8">
         <v>44929</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A946" s="6">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A947" s="6">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A948" s="6">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A949" s="6">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A950" s="6">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A951" s="6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A952" s="6">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A953" s="6">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A954" s="6">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A955" s="6">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A956" s="6">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A957" s="6">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A958" s="6">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A959" s="6">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A960" s="6">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961" s="6">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962" s="6">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963" s="6">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964" s="6">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965" s="6">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966" s="6">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967" s="6">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968" s="6">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969" s="6">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970" s="6">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971" s="6">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972" s="6">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973" s="6">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974" s="6">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975" s="6">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976" s="6">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977" s="6">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978" s="6">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979" s="6">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980" s="6">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981" s="6">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982" s="6">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983" s="6">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984" s="6">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985" s="6">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986" s="6">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987" s="6">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" s="6">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989" s="6">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990" s="6">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991" s="6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992" s="6">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993" s="6">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994" s="6">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995" s="6">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996" s="6">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997" s="6">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998" s="6">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999" s="6">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="6">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="6">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="6">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010" s="6">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011" s="6">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012" s="6">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013" s="6">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014" s="6">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015" s="6">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016" s="6">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017" s="6">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018" s="6">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019" s="6">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020" s="6">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022" s="6">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="6">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="6">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="6">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="6">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="6">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="6">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" s="6">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" s="6">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" s="6">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" s="6">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" s="6">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" s="6">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" s="6">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" s="6">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" s="6">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="6">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" s="6">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="6">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="6">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="6">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="6">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="6">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="6">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="6">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="6">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="6">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="6">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="6">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="6">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="6">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="6">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="6">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="6">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="6">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="6">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="6">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="6">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="6">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="6">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="6">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="6">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="6">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="6">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="6">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="6">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="6">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="6">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="6">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="6">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="6">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="6">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="6">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="6">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="6">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="6">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="6">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="6">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081" s="6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="6">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="6">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="6">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="6">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086" s="6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087" s="6">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088" s="6">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089" s="6">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091" s="6">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="6">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="6">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="6">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095" s="6">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096" s="6">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097" s="6">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098" s="6">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="6">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100" s="6">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102" s="6">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103" s="6">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104" s="6">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105" s="6">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106" s="6">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107" s="6">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108" s="6">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109" s="6">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110" s="6">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111" s="6">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112" s="6">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113" s="6">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114" s="6">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115" s="6">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116" s="6">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117" s="6">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118" s="6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119" s="6">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120" s="6">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121" s="6">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122" s="6">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123" s="6">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124" s="6">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125" s="6">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126" s="6">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127" s="6">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128" s="6">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129" s="6">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130" s="6">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131" s="6">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132" s="6">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133" s="6">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134" s="6">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135" s="6">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136" s="6">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1137" s="6">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1138" s="6">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1138" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D1138" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1138" s="8">
         <v>44929</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="9">
-        <v>44929</v>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1139" s="6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1140" s="6">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1141" s="6">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1142" s="6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1143" s="6">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1144" s="6">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1145" s="6">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1146" s="6">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1147" s="6">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1148" s="6">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1149" s="6">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1150" s="6">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1151" s="6">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1152" s="6">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153" s="6">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154" s="6">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155" s="6">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156" s="6">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157" s="6">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158" s="6">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159" s="6">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160" s="6">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161" s="6">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162" s="6">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163" s="6">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164" s="6">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165" s="6">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166" s="6">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167" s="6">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168" s="6">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169" s="6">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170" s="6">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171" s="6">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172" s="6">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173" s="6">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174" s="6">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175" s="6">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176" s="6">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177" s="6">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178" s="6">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179" s="6">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180" s="6">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181" s="6">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182" s="6">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183" s="6">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184" s="6">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1185" s="6">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1186" s="6">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1187" s="6">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1188" s="6">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1189" s="6">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1190" s="6">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1191" s="6">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1192" s="6">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1193" s="6">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1194" s="6">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1195" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1196" s="6">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1197" s="6">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1198" s="6">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1199" s="6">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1200" s="6">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202" s="6">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203" s="6">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204" s="6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205" s="6">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206" s="6">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207" s="6">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208" s="6">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209" s="6">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210" s="6">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211" s="6">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212" s="6">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213" s="6">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214" s="6">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215" s="6">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216" s="6">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1217" s="6">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1218" s="6">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1219" s="6">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1220" s="6">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1221" s="6">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1222" s="6">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1223" s="6">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1224" s="6">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1225" s="6">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1226" s="6">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1227" s="6">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1228" s="6">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1229" s="6">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1230" s="6">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1231" s="6">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1232" s="6">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1233" s="6">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1234" s="6">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1235" s="6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1236" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1237" s="6">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1238" s="6">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1239" s="6">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1240" s="6">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1241" s="6">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1242" s="6">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1243" s="6">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1244" s="6">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1245" s="6">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="6">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="6">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="6">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1249" s="6">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1250" s="6">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1251" s="6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1252" s="6">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1253" s="6">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1254" s="6">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1255" s="6">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1256" s="6">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1257" s="6">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1258" s="6">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1259" s="6">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1260" s="6">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1261" s="6">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1262" s="6">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1263" s="6">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1264" s="6">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1265" s="6">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1266" s="6">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1267" s="6">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1268" s="6">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1269" s="6">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1270" s="6">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1271" s="6">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1272" s="6">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1273" s="6">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1274" s="6">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1275" s="6">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1276" s="6">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1277" s="6">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1278" s="6">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1279" s="6">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1280" s="6">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1281" s="6">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1282" s="6">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1283" s="6">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1284" s="6">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1285" s="6">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1286" s="6">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1287" s="6">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1288" s="6">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1289" s="6">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1290" s="6">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1291" s="6">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1292" s="6">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1293" s="6">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1294" s="6">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1295" s="6">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1296" s="6">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1297" s="6">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1298" s="6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1299" s="6">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1300" s="6">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1301" s="6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1302" s="6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1303" s="6">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1304" s="6">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1305" s="6">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1306" s="6">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1307" s="6">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1308" s="6">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1309" s="6">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1310" s="6">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1311" s="6">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1312" s="6">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1313" s="6">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1314" s="6">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1315" s="6">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1316" s="6">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1317" s="6">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1318" s="6">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1319" s="6">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1320" s="6">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1321" s="6">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1322" s="6">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1323" s="6">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1324" s="6">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1325" s="6">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1326" s="6">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1327" s="6">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1328" s="6">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1329" s="6">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1330" s="6">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1331" s="6">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1332" s="6">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1333" s="6">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1334" s="6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1335" s="6">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="6">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="6">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="6">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="6">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="6">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="6">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="6">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="6">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="6">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="6">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="6">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="6">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="6">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="6">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="6">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="6">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="6">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="6">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="6">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1356" s="6">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1357" s="6">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1358" s="6">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1359" s="6">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1360" s="6">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1361" s="6">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="6">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1363" s="6">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1364" s="6">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1365" s="6">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1366" s="6">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1367" s="6">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1368" s="6">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1369" s="6">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1370" s="6">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1371" s="6">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1372" s="6">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1373" s="6">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1374" s="6">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1375" s="6">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1376" s="6">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1377" s="6">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1378" s="6">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1379" s="6">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1380" s="6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1381" s="6">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1382" s="6">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1383" s="6">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1384" s="6">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1385" s="6">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="6">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1387" s="6">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1388" s="6">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1389" s="6">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1390" s="6">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1391" s="6">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1392" s="6">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1393" s="6">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1394" s="6">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1395" s="6">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1396" s="6">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1397" s="6">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1398" s="6">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1399" s="6">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1400" s="6">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1401" s="6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1402" s="6">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1403" s="6">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1404" s="6">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1405" s="6">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1406" s="6">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1407" s="6">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1408" s="6">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1409" s="6">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1410" s="6">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1411" s="6">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1412" s="6">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1413" s="6">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1414" s="6">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1415" s="6">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1416" s="6">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1417" s="6">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1418" s="6">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1419" s="6">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1420" s="6">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1421" s="6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1422" s="6">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1423" s="6">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1424" s="6">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1425" s="6">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1426" s="6">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1427" s="6">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1428" s="6">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1429" s="6">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1430" s="6">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1431" s="6">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1432" s="6">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1433" s="6">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1434" s="6">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1435" s="6">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="6">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1437" s="6">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="6">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="6">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1440" s="6">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="6">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1442" s="6">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="6">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1444" s="6">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="6">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1446" s="6">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="6">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1448" s="6">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="6">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1450" s="6">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="6">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1452" s="6">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1453" s="6">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="6">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1455" s="6">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1456" s="6">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1457" s="6">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="6">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="6">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1460" s="6">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="6">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="6">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="6">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="6">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="6">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="6">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="6">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="6">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="6">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="6">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="6">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="6">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="6">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="6">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="6">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="6">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1477" s="6">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="6">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="6">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="6">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1481" s="6">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="6">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1483" s="6">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1484" s="6">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="6">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="6">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="6">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1488" s="6">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="6">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="6">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="6">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="6">
+        <v>1491</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96146CB-709E-400E-A621-67D9CB117DAB}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE33B6E-62A2-4B94-B8E8-96A533585B23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +630,8 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -889,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6">
@@ -909,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -1016,7 +1037,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F19" s="6">
         <v>44931</v>
@@ -1047,32 +1068,68 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="4">
+        <v>740</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44931</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="4">
+        <v>213</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44931</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="4">
+        <v>452</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44931</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE33B6E-62A2-4B94-B8E8-96A533585B23}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB19349-5D1E-402C-A9F1-417DD1E27128}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7812" yWindow="1080" windowWidth="14376" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,17 @@
   </si>
   <si>
     <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,9 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1134,12 +1145,24 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44931</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB19349-5D1E-402C-A9F1-417DD1E27128}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8551383-1718-402D-B2F0-F9314E68B869}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="1080" windowWidth="14376" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="1020" windowWidth="14376" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,19 @@
   <si>
     <t>Backtracking</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Maximum Ice Cream Bars</t>
   </si>
 </sst>
 </file>
@@ -314,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +356,9 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,25 +654,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="56.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -704,7 +721,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -717,14 +734,13 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="6">
         <v>44928</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -746,7 +762,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -759,14 +775,13 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="6">
         <v>44928</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -779,14 +794,13 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="6">
         <v>44928</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>14</v>
       </c>
@@ -799,14 +813,13 @@
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
       <c r="F7" s="6">
         <v>44928</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -819,14 +832,13 @@
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5"/>
       <c r="F8" s="6">
         <v>44929</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>15</v>
       </c>
@@ -848,7 +860,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>509</v>
       </c>
@@ -861,14 +873,13 @@
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5"/>
       <c r="F10" s="6">
         <v>44929</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>944</v>
       </c>
@@ -890,7 +901,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1137</v>
       </c>
@@ -903,14 +914,13 @@
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5"/>
       <c r="F12" s="6">
         <v>44929</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -923,14 +933,13 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5"/>
       <c r="F13" s="6">
         <v>44930</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>17</v>
       </c>
@@ -952,7 +961,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>18</v>
       </c>
@@ -974,7 +983,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>70</v>
       </c>
@@ -987,14 +996,13 @@
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5"/>
       <c r="F16" s="6">
         <v>44930</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>198</v>
       </c>
@@ -1007,14 +1015,13 @@
       <c r="D17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="5"/>
       <c r="F17" s="7">
         <v>44930</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>746</v>
       </c>
@@ -1027,14 +1034,13 @@
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="5"/>
       <c r="F18" s="6">
         <v>44930</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2244</v>
       </c>
@@ -1056,7 +1062,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -1078,7 +1084,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>740</v>
       </c>
@@ -1100,7 +1106,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>213</v>
       </c>
@@ -1122,7 +1128,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>452</v>
       </c>
@@ -1144,7 +1150,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1166,15 +1172,64 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44932</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="7">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1833</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7">
+        <v>44932</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8551383-1718-402D-B2F0-F9314E68B869}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6050E135-E1E0-46F4-911E-EF77F3985B65}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="1020" windowWidth="14376" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Longest Palindromic Substring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,56 +173,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Maximum Ice Cream Bars</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hash Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hash Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete and Earn</t>
-  </si>
-  <si>
-    <t>House Robber II</t>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Number of Arrows to Burst Balloons</t>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backtracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump Game</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump Game II</t>
-  </si>
-  <si>
-    <t>Maximum Ice Cream Bars</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Length of Subarray With Positive Product</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Sightseeing Pair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +306,12 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -357,7 +419,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -667,7 +729,7 @@
     <col min="2" max="2" width="56.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="5" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
@@ -713,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6">
         <v>44928</v>
@@ -754,7 +816,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6">
         <v>44928</v>
@@ -767,13 +829,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6">
         <v>44928</v>
@@ -786,13 +848,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6">
         <v>44928</v>
@@ -805,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6">
         <v>44928</v>
@@ -824,13 +886,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6">
         <v>44929</v>
@@ -843,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -865,13 +927,13 @@
         <v>509</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6">
         <v>44929</v>
@@ -884,7 +946,7 @@
         <v>944</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -893,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6">
         <v>44929</v>
@@ -906,13 +968,13 @@
         <v>1137</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6">
         <v>44929</v>
@@ -925,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6">
         <v>44930</v>
@@ -944,16 +1006,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6">
         <v>44930</v>
@@ -966,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -988,13 +1050,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
         <v>44930</v>
@@ -1007,13 +1069,13 @@
         <v>198</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7">
         <v>44930</v>
@@ -1026,13 +1088,13 @@
         <v>746</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6">
         <v>44930</v>
@@ -1045,16 +1107,16 @@
         <v>2244</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6">
         <v>44931</v>
@@ -1067,16 +1129,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="6">
         <v>44931</v>
@@ -1089,16 +1151,16 @@
         <v>740</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6">
         <v>44931</v>
@@ -1111,16 +1173,16 @@
         <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="6">
         <v>44931</v>
@@ -1133,16 +1195,16 @@
         <v>452</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6">
         <v>44931</v>
@@ -1155,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="F24" s="6">
         <v>44931</v>
@@ -1177,16 +1239,16 @@
         <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="6">
         <v>44932</v>
@@ -1195,17 +1257,17 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="7">
         <v>44932</v>
@@ -1216,19 +1278,236 @@
         <v>1833</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7">
         <v>44932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>918</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>134</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>149</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="6">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>76</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>1567</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="9">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>152</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="9">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>121</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="6">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>122</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="6">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44934</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6050E135-E1E0-46F4-911E-EF77F3985B65}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE6497B-3C45-4461-B8AB-2DBF036DC4E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
+    <sheet name="顏色碼" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +180,6 @@
     <t>House Robber II</t>
   </si>
   <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Minimum Number of Arrows to Burst Balloons</t>
   </si>
   <si>
@@ -204,10 +201,6 @@
     <t>Jump Game</t>
   </si>
   <si>
-    <t>Greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jump Game II</t>
   </si>
   <si>
@@ -271,18 +264,128 @@
     <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
-    <t>Dynamic Programming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Best Sightseeing Pair</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無提示，並達到最佳解</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時間與空間複雜度有待加強</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有可改進之處</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有看提示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>看了解答，並且有寫出來</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在寫之前，未學過的演算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,12 +414,49 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5"/>
+      <color theme="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +487,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -385,11 +561,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,7 +610,40 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,10 +671,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,17 +936,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="56.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="58.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="5" customWidth="1"/>
@@ -775,9 +995,9 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="6">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7">
         <v>44928</v>
       </c>
       <c r="G2" s="6"/>
@@ -796,7 +1016,7 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>44928</v>
       </c>
       <c r="G3" s="6"/>
@@ -816,9 +1036,9 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7">
         <v>44928</v>
       </c>
       <c r="G4" s="6"/>
@@ -837,7 +1057,7 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>44928</v>
       </c>
       <c r="G5" s="6"/>
@@ -856,7 +1076,7 @@
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>44928</v>
       </c>
       <c r="G6" s="6"/>
@@ -875,7 +1095,7 @@
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>44928</v>
       </c>
       <c r="G7" s="6"/>
@@ -894,7 +1114,7 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>44929</v>
       </c>
       <c r="G8" s="6"/>
@@ -916,7 +1136,7 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>44929</v>
       </c>
       <c r="G9" s="6"/>
@@ -935,7 +1155,7 @@
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>44929</v>
       </c>
       <c r="G10" s="6"/>
@@ -957,7 +1177,7 @@
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>44929</v>
       </c>
       <c r="G11" s="6"/>
@@ -976,7 +1196,7 @@
       <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>44929</v>
       </c>
       <c r="G12" s="6"/>
@@ -993,9 +1213,9 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7">
         <v>44930</v>
       </c>
       <c r="G13" s="6"/>
@@ -1012,12 +1232,12 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>44930</v>
       </c>
       <c r="G14" s="6"/>
@@ -1039,7 +1259,7 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="10">
         <v>44930</v>
       </c>
       <c r="G15" s="6"/>
@@ -1058,7 +1278,7 @@
       <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>44930</v>
       </c>
       <c r="G16" s="6"/>
@@ -1077,7 +1297,7 @@
       <c r="D17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="10">
         <v>44930</v>
       </c>
       <c r="G17" s="6"/>
@@ -1096,7 +1316,7 @@
       <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>44930</v>
       </c>
       <c r="G18" s="6"/>
@@ -1116,9 +1336,9 @@
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="6">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7">
         <v>44931</v>
       </c>
       <c r="G19" s="6"/>
@@ -1140,7 +1360,7 @@
       <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>44931</v>
       </c>
       <c r="G20" s="6"/>
@@ -1160,9 +1380,9 @@
         <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="6">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7">
         <v>44931</v>
       </c>
       <c r="G21" s="6"/>
@@ -1182,9 +1402,9 @@
         <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="6">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7">
         <v>44931</v>
       </c>
       <c r="G22" s="6"/>
@@ -1195,7 +1415,7 @@
         <v>452</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
@@ -1204,9 +1424,9 @@
         <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="6">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7">
         <v>44931</v>
       </c>
       <c r="G23" s="6"/>
@@ -1217,18 +1437,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>44931</v>
       </c>
       <c r="G24" s="6"/>
@@ -1239,7 +1459,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
@@ -1248,9 +1468,9 @@
         <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="6">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7">
         <v>44932</v>
       </c>
       <c r="G25" s="6"/>
@@ -1261,7 +1481,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
@@ -1269,7 +1489,7 @@
       <c r="D26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="10">
         <v>44932</v>
       </c>
     </row>
@@ -1278,7 +1498,7 @@
         <v>1833</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -1287,9 +1507,9 @@
         <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="7">
+        <v>41</v>
+      </c>
+      <c r="F27" s="10">
         <v>44932</v>
       </c>
     </row>
@@ -1298,18 +1518,18 @@
         <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>44933</v>
       </c>
     </row>
@@ -1318,7 +1538,7 @@
         <v>918</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>13</v>
@@ -1329,7 +1549,7 @@
       <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="10">
         <v>44933</v>
       </c>
     </row>
@@ -1338,7 +1558,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -1349,7 +1569,7 @@
       <c r="E30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>44933</v>
       </c>
     </row>
@@ -1358,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -1366,7 +1586,7 @@
       <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>44933</v>
       </c>
     </row>
@@ -1375,18 +1595,18 @@
         <v>149</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <v>44934</v>
       </c>
     </row>
@@ -1395,18 +1615,18 @@
         <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>44934</v>
       </c>
     </row>
@@ -1415,7 +1635,7 @@
         <v>1567</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>13</v>
@@ -1435,7 +1655,7 @@
         <v>152</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>13</v>
@@ -1455,7 +1675,7 @@
         <v>121</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
@@ -1464,9 +1684,9 @@
         <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="6">
+        <v>25</v>
+      </c>
+      <c r="F36" s="7">
         <v>44934</v>
       </c>
     </row>
@@ -1475,7 +1695,7 @@
         <v>122</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>13</v>
@@ -1484,9 +1704,9 @@
         <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="6">
+        <v>25</v>
+      </c>
+      <c r="F37" s="7">
         <v>44934</v>
       </c>
     </row>
@@ -1495,7 +1715,7 @@
         <v>1014</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -1504,10 +1724,132 @@
         <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="7">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>27</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="7">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>29</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="6">
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="12">
         <v>44934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="11">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>50</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="7">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>35</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="7">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>278</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="12">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>34</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="6">
+        <v>44935</v>
       </c>
     </row>
   </sheetData>
@@ -1519,4 +1861,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08BF30-F7A8-43B8-BBBC-50C8AC84A4B1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="51.375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE6497B-3C45-4461-B8AB-2DBF036DC4E6}"/>
+  <xr:revisionPtr revIDLastSave="641" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD753D4C-2B6E-4E8F-8A52-8815CE314DAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,34 @@
   </si>
   <si>
     <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Minimum Time to Collect All Apples in a Tree</t>
+  </si>
+  <si>
+    <t>Depth First Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Nodes in the Sub-Tree With the Same Label</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,6 +701,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -936,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1848,8 +1880,85 @@
       <c r="D45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>44935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>144</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="7">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="7">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>1443</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="12">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>1519</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="7">
+        <v>44938</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD753D4C-2B6E-4E8F-8A52-8815CE314DAB}"/>
+  <xr:revisionPtr revIDLastSave="953" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7FB51A-2630-45DB-B219-0D7796ADB10D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1584" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="137">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,12 +408,166 @@
     <t>Binary Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Matrix Block Sum</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Arithmetic Slices</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>Flip String to Monotone Increasing</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Subarray Sums Divisible by K</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-decreasing Subsequences</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find The Original Array of Prefix Xor</t>
+  </si>
+  <si>
+    <t>Count Triplets That Can Form Two Arrays of Equal XOR</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +636,12 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -608,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,6 +832,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1959,6 +2122,631 @@
       </c>
       <c r="F49" s="7">
         <v>44938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>91</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="7">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>37</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="7">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>102</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="7">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>57</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>118</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>1314</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>304</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>96</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>931</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>413</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="7">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="7">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>926</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>21</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>23</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>38</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>290</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>974</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>64</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="7">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>516</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="11">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>491</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="21">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>300</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="9">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>48</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>49</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>58</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>136</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>2433</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="7">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>1442</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="21">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>46</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>47</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>36</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="7">
+        <v>44947</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="953" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7FB51A-2630-45DB-B219-0D7796ADB10D}"/>
+  <xr:revisionPtr revIDLastSave="1303" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6321739-6CA2-40F2-86AB-881850DA3B48}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1584" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
     <sheet name="顏色碼" sheetId="3" r:id="rId2"/>
+    <sheet name="DP用的建表" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="160">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,12 +563,109 @@
     <t>Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>硬幣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可使用硬幣種類數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Change II</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>Permutation Sequence</t>
+  </si>
+  <si>
+    <t>Recursive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +738,41 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFCC66"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -768,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,6 +970,18 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -845,11 +990,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC66"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCC99"/>
-      <color rgb="FFFFCC66"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -1131,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2747,6 +2892,285 @@
       </c>
       <c r="F84" s="7">
         <v>44947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>93</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>94</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>1143</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>392</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>139</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>140</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F90" s="7">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>131</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="7">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>132</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="7">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>322</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="7">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>518</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="9">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>263</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="7">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>264</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="25">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>221</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="25">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>376</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="10">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>60</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="10">
+        <v>44949</v>
       </c>
     </row>
   </sheetData>
@@ -2815,4 +3239,346 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27864E-8492-450A-B785-3016CDA2110C}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="23.375" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="22">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22">
+        <v>4</v>
+      </c>
+      <c r="H1" s="22">
+        <v>5</v>
+      </c>
+      <c r="I1" s="22">
+        <v>6</v>
+      </c>
+      <c r="J1" s="22">
+        <v>7</v>
+      </c>
+      <c r="K1" s="22">
+        <v>8</v>
+      </c>
+      <c r="L1" s="22">
+        <v>9</v>
+      </c>
+      <c r="M1" s="22">
+        <v>10</v>
+      </c>
+      <c r="N1" s="22">
+        <v>11</v>
+      </c>
+      <c r="O1" s="22">
+        <v>12</v>
+      </c>
+      <c r="P1" s="22">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>14</v>
+      </c>
+      <c r="R1" s="22">
+        <v>15</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="P2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>1</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <v>2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2</v>
+      </c>
+      <c r="L4" s="23">
+        <v>2</v>
+      </c>
+      <c r="M4" s="23">
+        <v>2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23">
+        <v>3</v>
+      </c>
+      <c r="P4" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>2</v>
+      </c>
+      <c r="R4" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>7</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>3</v>
+      </c>
+      <c r="M5" s="23">
+        <v>3</v>
+      </c>
+      <c r="N5" s="23">
+        <v>3</v>
+      </c>
+      <c r="O5" s="23">
+        <v>4</v>
+      </c>
+      <c r="P5" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>11</v>
+      </c>
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2</v>
+      </c>
+      <c r="L6" s="23">
+        <v>3</v>
+      </c>
+      <c r="M6" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1303" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6321739-6CA2-40F2-86AB-881850DA3B48}"/>
+  <xr:revisionPtr revIDLastSave="1398" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D501CEE-2D04-4FB9-8B6B-2E47305DBDD8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="948" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="173">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,48 @@
   <si>
     <t>Recursive</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorize Box According to Criteria</t>
+  </si>
+  <si>
+    <t>Find Consecutive Integers from a Data Stream</t>
+  </si>
+  <si>
+    <t>Find Xor-Beauty of Array</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
   </si>
 </sst>
 </file>
@@ -1276,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3170,6 +3212,182 @@
         <v>159</v>
       </c>
       <c r="F99" s="10">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>2525</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>2526</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>2527</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>674</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>24</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>59</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>66</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>69</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>75</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>90</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="10">
         <v>44949</v>
       </c>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1398" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D501CEE-2D04-4FB9-8B6B-2E47305DBDD8}"/>
+  <xr:revisionPtr revIDLastSave="1621" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD56653B-CBDC-4AAB-B131-5FAE3901DBD2}"/>
   <bookViews>
     <workbookView xWindow="5376" yWindow="948" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="209">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,127 @@
   </si>
   <si>
     <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Integer Break</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>Find Closest Node to Given Two Nodes</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monotonic Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Digit One</t>
   </si>
 </sst>
 </file>
@@ -1318,11 +1439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3389,6 +3510,453 @@
       </c>
       <c r="F109" s="10">
         <v>44949</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>997</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F110" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>279</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F111" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>343</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>377</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="7">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>309</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="9">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>714</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="10">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>42</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="9">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>72</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="9">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>909</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>78</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>98</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F120" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>113</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F121" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>112</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F122" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>437</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>145</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>125</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>95</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>127</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="7">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>200</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F128" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>201</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F129" s="9">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>2359</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>231</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F131" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>239</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>233</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="9">
+        <v>44951</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1621" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD56653B-CBDC-4AAB-B131-5FAE3901DBD2}"/>
+  <xr:revisionPtr revIDLastSave="1822" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6045CCB1-D8BE-4505-8A56-652C98784EC6}"/>
   <bookViews>
     <workbookView xWindow="5376" yWindow="948" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="246">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,19 +290,6 @@
         <charset val="136"/>
       </rPr>
       <t>無提示，並達到最佳解</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時間與空間複雜度有待加強</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,19 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在寫之前，未學過的演算法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pow(x, n)</t>
   </si>
   <si>
@@ -822,6 +796,140 @@
   </si>
   <si>
     <t>Number of Digit One</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Monotonic Array</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間或空間複雜度有待加強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concatenated Words</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream as Disjoint Intervals</t>
+  </si>
+  <si>
+    <t>Disjoint Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List in Binary Tree</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在寫之前，未學過的演算法或看著解答寫出來的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU Cache</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,6 +1251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1876,9 @@
       <c r="F15" s="10">
         <v>44930</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7">
+        <v>44952</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1803,7 +1916,9 @@
       <c r="F17" s="10">
         <v>44930</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7">
+        <v>44952</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1995,6 +2110,9 @@
       <c r="F26" s="10">
         <v>44932</v>
       </c>
+      <c r="G26" s="7">
+        <v>44952</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -2281,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="11">
         <v>44934</v>
@@ -2292,7 +2410,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>13</v>
@@ -2309,13 +2427,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="7">
         <v>44934</v>
@@ -2326,13 +2444,13 @@
         <v>278</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" s="12">
         <v>44934</v>
@@ -2343,13 +2461,13 @@
         <v>34</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" s="7">
         <v>44935</v>
@@ -2360,16 +2478,16 @@
         <v>144</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F46" s="7">
         <v>44936</v>
@@ -2380,13 +2498,13 @@
         <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F47" s="7">
         <v>44936</v>
@@ -2397,16 +2515,16 @@
         <v>1443</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" s="12">
         <v>44937</v>
@@ -2417,16 +2535,16 @@
         <v>1519</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" s="7">
         <v>44938</v>
@@ -2437,7 +2555,7 @@
         <v>91</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>13</v>
@@ -2454,13 +2572,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F51" s="7">
         <v>44938</v>
@@ -2471,13 +2589,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F52" s="7">
         <v>44939</v>
@@ -2488,16 +2606,16 @@
         <v>102</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="F53" s="7">
         <v>44939</v>
@@ -2508,7 +2626,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>13</v>
@@ -2525,7 +2643,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>6</v>
@@ -2542,7 +2660,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>6</v>
@@ -2559,7 +2677,7 @@
         <v>1314</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>13</v>
@@ -2568,7 +2686,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="7">
         <v>44942</v>
@@ -2579,7 +2697,7 @@
         <v>304</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>13</v>
@@ -2588,7 +2706,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F58" s="7">
         <v>44942</v>
@@ -2599,7 +2717,7 @@
         <v>120</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>13</v>
@@ -2616,7 +2734,7 @@
         <v>96</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>13</v>
@@ -2633,7 +2751,7 @@
         <v>931</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>13</v>
@@ -2650,7 +2768,7 @@
         <v>413</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
@@ -2670,7 +2788,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>13</v>
@@ -2687,7 +2805,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>13</v>
@@ -2704,7 +2822,7 @@
         <v>926</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>13</v>
@@ -2721,7 +2839,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>6</v>
@@ -2738,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>54</v>
@@ -2755,13 +2873,13 @@
         <v>38</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" s="7">
         <v>44944</v>
@@ -2772,13 +2890,13 @@
         <v>290</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69" s="7">
         <v>44944</v>
@@ -2789,13 +2907,13 @@
         <v>974</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F70" s="7">
         <v>44944</v>
@@ -2806,7 +2924,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
@@ -2823,7 +2941,7 @@
         <v>516</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>13</v>
@@ -2832,7 +2950,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" s="11">
         <v>44945</v>
@@ -2843,7 +2961,7 @@
         <v>491</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>13</v>
@@ -2860,7 +2978,7 @@
         <v>300</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>13</v>
@@ -2877,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>13</v>
@@ -2897,13 +3015,13 @@
         <v>48</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F76" s="7">
         <v>44946</v>
@@ -2914,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>13</v>
@@ -2923,7 +3041,7 @@
         <v>58</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F77" s="7">
         <v>44946</v>
@@ -2934,7 +3052,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>6</v>
@@ -2951,13 +3069,13 @@
         <v>136</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F79" s="7">
         <v>44946</v>
@@ -2968,13 +3086,13 @@
         <v>2433</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F80" s="7">
         <v>44946</v>
@@ -2985,16 +3103,16 @@
         <v>1442</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F81" s="21">
         <v>44946</v>
@@ -3005,7 +3123,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>13</v>
@@ -3025,7 +3143,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>13</v>
@@ -3045,13 +3163,13 @@
         <v>36</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F84" s="7">
         <v>44947</v>
@@ -3062,7 +3180,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>13</v>
@@ -3079,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F86" s="7">
         <v>44947</v>
@@ -3096,7 +3214,7 @@
         <v>1143</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>13</v>
@@ -3105,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F87" s="7">
         <v>44947</v>
@@ -3116,7 +3234,7 @@
         <v>392</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>6</v>
@@ -3136,7 +3254,7 @@
         <v>139</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>13</v>
@@ -3156,7 +3274,7 @@
         <v>140</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>54</v>
@@ -3165,7 +3283,7 @@
         <v>44</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F90" s="7">
         <v>44947</v>
@@ -3176,7 +3294,7 @@
         <v>131</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>13</v>
@@ -3185,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F91" s="7">
         <v>44948</v>
@@ -3196,7 +3314,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>54</v>
@@ -3205,7 +3323,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F92" s="7">
         <v>44948</v>
@@ -3216,7 +3334,7 @@
         <v>322</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>13</v>
@@ -3233,7 +3351,7 @@
         <v>518</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>13</v>
@@ -3250,13 +3368,13 @@
         <v>263</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F95" s="7">
         <v>44948</v>
@@ -3267,7 +3385,7 @@
         <v>264</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>13</v>
@@ -3276,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F96" s="25">
         <v>44948</v>
@@ -3287,7 +3405,7 @@
         <v>221</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>13</v>
@@ -3296,7 +3414,7 @@
         <v>25</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F97" s="25">
         <v>44948</v>
@@ -3307,7 +3425,7 @@
         <v>376</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>13</v>
@@ -3324,13 +3442,13 @@
         <v>60</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F99" s="10">
         <v>44949</v>
@@ -3341,13 +3459,13 @@
         <v>2525</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F100" s="7">
         <v>44949</v>
@@ -3358,13 +3476,13 @@
         <v>2526</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F101" s="7">
         <v>44949</v>
@@ -3375,13 +3493,13 @@
         <v>2527</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F102" s="7">
         <v>44949</v>
@@ -3392,13 +3510,13 @@
         <v>674</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="7">
         <v>44949</v>
@@ -3409,7 +3527,7 @@
         <v>24</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>13</v>
@@ -3426,16 +3544,16 @@
         <v>59</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F105" s="7">
         <v>44949</v>
@@ -3446,7 +3564,7 @@
         <v>66</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>6</v>
@@ -3455,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F106" s="7">
         <v>44949</v>
@@ -3466,13 +3584,13 @@
         <v>69</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F107" s="7">
         <v>44949</v>
@@ -3483,7 +3601,7 @@
         <v>75</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>13</v>
@@ -3500,7 +3618,7 @@
         <v>90</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>13</v>
@@ -3517,13 +3635,13 @@
         <v>997</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F110" s="7">
         <v>44949</v>
@@ -3534,7 +3652,7 @@
         <v>279</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>13</v>
@@ -3543,7 +3661,7 @@
         <v>25</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F111" s="7">
         <v>44949</v>
@@ -3554,13 +3672,13 @@
         <v>343</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>25</v>
@@ -3574,7 +3692,7 @@
         <v>377</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>13</v>
@@ -3591,7 +3709,7 @@
         <v>309</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>13</v>
@@ -3608,7 +3726,7 @@
         <v>714</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>13</v>
@@ -3625,7 +3743,7 @@
         <v>42</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>54</v>
@@ -3642,7 +3760,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>54</v>
@@ -3659,13 +3777,13 @@
         <v>909</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F118" s="7">
         <v>44950</v>
@@ -3676,7 +3794,7 @@
         <v>78</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>13</v>
@@ -3693,13 +3811,13 @@
         <v>98</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F120" s="7">
         <v>44950</v>
@@ -3710,16 +3828,16 @@
         <v>113</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F121" s="7">
         <v>44950</v>
@@ -3730,16 +3848,16 @@
         <v>112</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F122" s="7">
         <v>44950</v>
@@ -3750,16 +3868,16 @@
         <v>437</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F123" s="7">
         <v>44950</v>
@@ -3770,13 +3888,13 @@
         <v>145</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F124" s="7">
         <v>44950</v>
@@ -3787,7 +3905,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>6</v>
@@ -3807,7 +3925,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>13</v>
@@ -3816,7 +3934,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F126" s="7">
         <v>44950</v>
@@ -3827,13 +3945,13 @@
         <v>127</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>58</v>
@@ -3847,16 +3965,16 @@
         <v>200</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="F128" s="7">
         <v>44951</v>
@@ -3867,13 +3985,13 @@
         <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F129" s="9">
         <v>44951</v>
@@ -3884,16 +4002,16 @@
         <v>2359</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F130" s="7">
         <v>44951</v>
@@ -3904,16 +4022,16 @@
         <v>231</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F131" s="7">
         <v>44951</v>
@@ -3924,16 +4042,16 @@
         <v>239</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F132" s="7">
         <v>44951</v>
@@ -3944,19 +4062,429 @@
         <v>233</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F133" s="9">
         <v>44951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>104</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>108</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F135" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>111</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F136" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>61</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>129</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F138" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>167</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>142</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>896</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="7">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>459</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="7">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>79</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F143" s="7">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>787</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F144" s="10">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>110</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" s="7">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>199</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F146" s="7">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>472</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F147" s="9">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>150</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F148" s="7">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>352</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F149" s="10">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>1367</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="7">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>43</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F151" s="7">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>460</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F152" s="11">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>989</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F153" s="7">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>67</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F154" s="7">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>146</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F155" s="7">
+        <v>44956</v>
       </c>
     </row>
   </sheetData>
@@ -3975,13 +4503,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="51.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="87.5" style="15" customWidth="1"/>
     <col min="3" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -3993,32 +4521,32 @@
     </row>
     <row r="2" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
-        <v>71</v>
+      <c r="B2" s="26" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
+      <c r="B6" s="26" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4620,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -4357,10 +4885,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1822" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6045CCB1-D8BE-4505-8A56-652C98784EC6}"/>
+  <xr:revisionPtr revIDLastSave="2419" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2500F82-32C3-46AB-98F6-0FBD749ECEB1}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="948" windowWidth="14340" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="解題紀錄" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="346">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +930,338 @@
   </si>
   <si>
     <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>As Far from Land as Possible</t>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Monotonic Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Shortest Path with Alternating Colors</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Odd Numbers in an Interval Range</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtract the Product and Sum of Digits of an Integer</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>Segment Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Fuel Cost to Report to the Capital</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Sign of the Product of an Array</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if One String Swap Can Make Strings Equal</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Find Nearest Point That Has the Same X or Y Coordinate</t>
+  </si>
+  <si>
+    <t>Largest Perimeter Triangle</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Check If It Is a Straight Line</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Design HashMap</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Sum of All Odd Length Subarrays</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix Diagonal Sum</t>
+  </si>
+  <si>
+    <t>Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Counting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Strings Alternately</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal Parser Interpretation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Difference by Remapping a Digit</t>
+  </si>
+  <si>
+    <t>Minimum Score by Changing Two Elements</t>
+  </si>
+  <si>
+    <t>Minimum Impossible OR</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Lower Case</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Merge Two 2D Arrays by Summing Values</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Reduce an Integer to 0</t>
+  </si>
+  <si>
+    <t>Decrypt String from Alphabet to Integer Mapping</t>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary Number in a Linked List to Integer</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Labels</t>
   </si>
 </sst>
 </file>
@@ -1550,17 +1882,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="58.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="64.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="5" customWidth="1"/>
@@ -4485,6 +4817,1258 @@
       </c>
       <c r="F155" s="7">
         <v>44956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>973</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" s="7">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>1162</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>172</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F158" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>209</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>739</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F160" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>237</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="11">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>1129</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F162" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>1523</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F163" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>1491</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="7">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>191</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F165" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>1281</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F166" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>307</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F167" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>2477</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>797</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F169" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>124</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F170" s="7">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>1822</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F171" s="7">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>1790</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F172" s="7">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>1502</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="7">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>202</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F174" s="7">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <v>169</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="10">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <v>1779</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="7">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>976</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" s="7">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>297</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F178" s="9">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>589</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F179" s="7">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>496</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F180" s="7">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>1232</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F181" s="7">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>56</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F182" s="12">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>706</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F183" s="10">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>236</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F184" s="10">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>39</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F185" s="7">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>1588</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F186" s="7">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>283</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="7">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>1672</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="7">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>74</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F189" s="7">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>77</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F190" s="7">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>783</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F191" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>1572</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F192" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>566</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F193" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>435</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F194" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>240</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F195" s="10">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>216</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F196" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>313</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F197" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>299</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F198" s="7">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
+        <v>347</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F199" s="10">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <v>226</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F200" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
+        <v>1768</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F201" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
+        <v>1678</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F202" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
+        <v>389</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F203" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>560</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>334</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
+        <v>238</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
+        <v>2566</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="7">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
+        <v>2567</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208" s="12">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>2568</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F209" s="12">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
+        <v>103</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F210" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
+        <v>709</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F211" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
+        <v>409</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F212" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
+        <v>415</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F213" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>2570</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F214" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
+        <v>2571</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F215" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
+        <v>1309</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F216" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="5">
+        <v>953</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F217" s="7">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
+        <v>287</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="9">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
+        <v>371</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F219" s="11">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
+        <v>404</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F220" s="7">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="5">
+        <v>876</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="7">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>1290</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F222" s="7">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>763</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F223" s="7">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab26a12c7c1b692/文件/GitHub/MyLeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2419" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2500F82-32C3-46AB-98F6-0FBD749ECEB1}"/>
+  <xr:revisionPtr revIDLastSave="2991" documentId="11_AD4DBB64A54DDB1B405E38AFD59938774F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFC439C-B577-45A3-B03D-5074D31FE34B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="444">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,12 +1263,352 @@
   <si>
     <t>Partition Labels</t>
   </si>
+  <si>
+    <t>Single Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Sort Integers by The Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Design Parking System</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>Rolling Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Closed Islands</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Minimize Deviation in Array</t>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Elements in a Contaminated Binary Tree</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Quad Tree</t>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort an Array</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union Find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nearest Exit from Entrance in Maze</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game III</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Time to Complete Trips</t>
+  </si>
+  <si>
+    <t>Kth Largest Sum in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass the Pillow</t>
+  </si>
+  <si>
+    <t>Minimum Number of Vertices to Reach All Nodes</t>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Randomized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Where Will the Ball Fall</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implmentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>Number of Zero-Filled Subarrays</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Minimum Score of a Path Between Two Cities</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Palindrome by Concatenating Two Letter Words</t>
+  </si>
+  <si>
+    <t>Counting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Unreachable Pairs of Nodes in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,6 +1716,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFCC66"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1504,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,6 +1932,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,11 +2231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFE8EA3-3F18-432B-82D3-F2E61FEC2D38}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4100,6 +4449,9 @@
       <c r="D117" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E117" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="F117" s="9">
         <v>44950</v>
       </c>
@@ -6069,6 +6421,995 @@
       </c>
       <c r="F223" s="7">
         <v>44977</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>540</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F224" s="7">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
+        <v>1356</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F225" s="10">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
+        <v>232</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F226" s="7">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
+        <v>242</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F227" s="7">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="5">
+        <v>217</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F228" s="7">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
+        <v>1603</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F229" s="7">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
+        <v>303</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F230" s="7">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F231" s="7">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
+        <v>187</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F232" s="7">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
+        <v>733</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F233" s="7">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
+        <v>695</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F234" s="7">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
+        <v>1254</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F235" s="7">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
+        <v>502</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F236" s="7">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="5">
+        <v>160</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="7">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="5">
+        <v>1675</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F238" s="11">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="5">
+        <v>1261</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F239" s="7">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="5">
+        <v>427</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F240" s="7">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="5">
+        <v>542</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F241" s="7">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
+        <v>652</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F242" s="11">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
+        <v>155</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F243" s="7">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>841</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F244" s="7">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>912</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F245" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>547</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F246" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
+        <v>1319</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F247" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>1926</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F248" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="5">
+        <v>1306</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F249" s="7">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
+        <v>2582</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F250" s="7">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="5">
+        <v>2583</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F251" s="7">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
+        <v>2187</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F252" s="7">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="5">
+        <v>1557</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F253" s="7">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
+        <v>382</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F254" s="7">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
+        <v>18</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" s="7">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
+        <v>88</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="7">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
+        <v>101</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F257" s="7">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
+        <v>958</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F258" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="5">
+        <v>208</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F259" s="11">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
+        <v>211</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F260" s="7">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
+        <v>1706</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F261" s="7">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
+        <v>605</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F262" s="7">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
+        <v>2348</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F263" s="7">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="27">
+        <v>234</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="7">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
+        <v>2492</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F265" s="7">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="5">
+        <v>2131</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F266" s="7">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="5">
+        <v>148</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F267" s="12">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="5">
+        <v>328</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="7">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="5">
+        <v>141</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269" s="7">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="5">
+        <v>2316</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F270" s="7">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
+        <v>543</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F271" s="7">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
+        <v>230</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F272" s="7">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="5">
+        <v>173</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F273" s="7">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="5">
+        <v>416</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274" s="7">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="5">
+        <v>994</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F275" s="7">
+        <v>45018</v>
       </c>
     </row>
   </sheetData>
